--- a/data/gihun/dataset/전남출산율모델.xlsx
+++ b/data/gihun/dataset/전남출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.4058295964125561</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>892</v>
       </c>
       <c r="F81" t="n">
         <v>75.184</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003831977689384917</v>
+      </c>
       <c r="H81" t="n">
         <v>52.1</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.506265664160401</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>798</v>
       </c>
       <c r="F82" t="n">
         <v>75.333</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003835442037497263</v>
+      </c>
       <c r="H82" t="n">
         <v>52.2</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.4222462203023758</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>926</v>
       </c>
       <c r="F83" t="n">
         <v>75.78</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003838906385609608</v>
+      </c>
       <c r="H83" t="n">
         <v>52.3</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.3792697290930506</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>849</v>
       </c>
       <c r="F84" t="n">
         <v>75.929</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003842370733721954</v>
+      </c>
       <c r="H84" t="n">
         <v>52.4</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.3533678756476684</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>965</v>
       </c>
       <c r="F85" t="n">
         <v>76.152</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.0038458350818343</v>
+      </c>
       <c r="H85" t="n">
         <v>52.6</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.4689655172413793</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>870</v>
       </c>
       <c r="F86" t="n">
         <v>75.929</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003849299429946646</v>
+      </c>
       <c r="H86" t="n">
         <v>52.7</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.4413702239789196</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>759</v>
       </c>
       <c r="F87" t="n">
         <v>76.227</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003852763778058991</v>
+      </c>
       <c r="H87" t="n">
         <v>52.9</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.5376486129458389</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>757</v>
       </c>
       <c r="F88" t="n">
         <v>76.82299999999999</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003856228126171337</v>
+      </c>
       <c r="H88" t="n">
         <v>53.1</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.5958132045088567</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>621</v>
       </c>
       <c r="F89" t="n">
         <v>77.047</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003859692474283682</v>
+      </c>
       <c r="H89" t="n">
         <v>53.3</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.4801641586867305</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>731</v>
       </c>
       <c r="F90" t="n">
         <v>76.376</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003863156822396028</v>
+      </c>
       <c r="H90" t="n">
         <v>53.8</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.3983822042467138</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>989</v>
       </c>
       <c r="F91" t="n">
         <v>75.855</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003866621170508374</v>
+      </c>
       <c r="H91" t="n">
         <v>54</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.2503703703703704</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1350</v>
       </c>
       <c r="F92" t="n">
         <v>76.152</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003870085518620719</v>
+      </c>
       <c r="H92" t="n">
         <v>54.2</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3401240035429584</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>1129</v>
       </c>
       <c r="F93" t="n">
         <v>76.30200000000001</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003873549866733065</v>
+      </c>
       <c r="H93" t="n">
         <v>54.4</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3805970149253731</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>10.24166666666667</v>
+      </c>
       <c r="E94" t="n">
         <v>938</v>
       </c>
       <c r="F94" t="n">
         <v>76.748</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003877051798700484</v>
+      </c>
       <c r="H94" t="n">
         <v>54.7</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.4301310043668122</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>10.88333333333333</v>
+      </c>
       <c r="E95" t="n">
         <v>916</v>
       </c>
       <c r="F95" t="n">
         <v>77.419</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003880553730667903</v>
+      </c>
       <c r="H95" t="n">
         <v>54.8</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.4208144796380091</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>11.525</v>
+      </c>
       <c r="E96" t="n">
         <v>884</v>
       </c>
       <c r="F96" t="n">
         <v>77.643</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003884055662635322</v>
+      </c>
       <c r="H96" t="n">
         <v>55.1</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.333</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>12.16666666666667</v>
+      </c>
       <c r="E97" t="n">
         <v>1000</v>
       </c>
       <c r="F97" t="n">
         <v>77.717</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003887557594602741</v>
+      </c>
       <c r="H97" t="n">
         <v>55.2</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3714285714285714</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>12.80833333333333</v>
+      </c>
       <c r="E98" t="n">
         <v>875</v>
       </c>
       <c r="F98" t="n">
         <v>77.717</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.00389105952657016</v>
+      </c>
       <c r="H98" t="n">
         <v>55.5</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.5080428954423593</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>13.45</v>
+      </c>
       <c r="E99" t="n">
         <v>746</v>
       </c>
       <c r="F99" t="n">
         <v>78.089</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003894561458537579</v>
+      </c>
       <c r="H99" t="n">
         <v>55.8</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.5160051216389244</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>14.09166666666667</v>
+      </c>
       <c r="E100" t="n">
         <v>781</v>
       </c>
       <c r="F100" t="n">
         <v>78.239</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003898063390504998</v>
+      </c>
       <c r="H100" t="n">
         <v>56.2</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.489010989010989</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>14.73333333333333</v>
+      </c>
       <c r="E101" t="n">
         <v>546</v>
       </c>
       <c r="F101" t="n">
         <v>78.761</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003901565322472417</v>
+      </c>
       <c r="H101" t="n">
         <v>56.6</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.3968253968253968</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>15.375</v>
+      </c>
       <c r="E102" t="n">
         <v>882</v>
       </c>
       <c r="F102" t="n">
         <v>78.90900000000001</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003905067254439836</v>
+      </c>
       <c r="H102" t="n">
         <v>56.9</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3360406091370559</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>16.01666666666667</v>
+      </c>
       <c r="E103" t="n">
         <v>985</v>
       </c>
       <c r="F103" t="n">
         <v>78.761</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003908569186407256</v>
+      </c>
       <c r="H103" t="n">
         <v>57.5</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2943686006825939</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>16.65833333333333</v>
+      </c>
       <c r="E104" t="n">
         <v>1172</v>
       </c>
       <c r="F104" t="n">
         <v>79.05800000000001</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003912071118374674</v>
+      </c>
       <c r="H104" t="n">
         <v>58.3</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.89</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H273" t="n">
         <v>102</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.51</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H274" t="n">
         <v>102</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.61</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H275" t="n">
         <v>102</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>107.66</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H276" t="n">
         <v>101.9</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>108.53</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H277" t="n">
         <v>101.8</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>109.39</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H278" t="n">
         <v>101.7</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>109.79</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H279" t="n">
         <v>101.5</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>109.5</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H280" t="n">
         <v>101.2</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>109.76</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H281" t="n">
         <v>100.9</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>109.95</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H282" t="n">
         <v>100.4</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>109.79</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H283" t="n">
         <v>99.7</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>25.2</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.81</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H284" t="n">
         <v>98.59999999999999</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.62</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001657725551606648</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
